--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.485621</v>
+        <v>1.523319666666667</v>
       </c>
       <c r="H2">
-        <v>1.456863</v>
+        <v>4.569959</v>
       </c>
       <c r="I2">
-        <v>0.1357088875882878</v>
+        <v>0.3270148067479001</v>
       </c>
       <c r="J2">
-        <v>0.1357088875882878</v>
+        <v>0.3270148067479002</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9976189999999999</v>
+        <v>0.1050723333333333</v>
       </c>
       <c r="N2">
-        <v>2.992857</v>
+        <v>0.315217</v>
       </c>
       <c r="O2">
-        <v>0.06139866523632875</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="P2">
-        <v>0.06139866523632875</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="Q2">
-        <v>0.484464736399</v>
+        <v>0.1600587517892222</v>
       </c>
       <c r="R2">
-        <v>4.360182627591</v>
+        <v>1.440528766103</v>
       </c>
       <c r="S2">
-        <v>0.008332344558627851</v>
+        <v>0.00221204788678291</v>
       </c>
       <c r="T2">
-        <v>0.008332344558627849</v>
+        <v>0.002212047886782911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.485621</v>
+        <v>1.523319666666667</v>
       </c>
       <c r="H3">
-        <v>1.456863</v>
+        <v>4.569959</v>
       </c>
       <c r="I3">
-        <v>0.1357088875882878</v>
+        <v>0.3270148067479001</v>
       </c>
       <c r="J3">
-        <v>0.1357088875882878</v>
+        <v>0.3270148067479002</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2810146666666667</v>
+        <v>0.9976189999999999</v>
       </c>
       <c r="N3">
-        <v>0.843044</v>
+        <v>2.992857</v>
       </c>
       <c r="O3">
-        <v>0.01729510509038539</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="P3">
-        <v>0.01729510509038539</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="Q3">
-        <v>0.1364666234413333</v>
+        <v>1.519692642540333</v>
       </c>
       <c r="R3">
-        <v>1.228199610972</v>
+        <v>13.677233782863</v>
       </c>
       <c r="S3">
-        <v>0.002347099472538735</v>
+        <v>0.02100249352761253</v>
       </c>
       <c r="T3">
-        <v>0.002347099472538734</v>
+        <v>0.02100249352761254</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.485621</v>
+        <v>1.523319666666667</v>
       </c>
       <c r="H4">
-        <v>1.456863</v>
+        <v>4.569959</v>
       </c>
       <c r="I4">
-        <v>0.1357088875882878</v>
+        <v>0.3270148067479001</v>
       </c>
       <c r="J4">
-        <v>0.1357088875882878</v>
+        <v>0.3270148067479002</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.969586</v>
+        <v>0.173444</v>
       </c>
       <c r="N4">
-        <v>44.90875800000001</v>
+        <v>0.520332</v>
       </c>
       <c r="O4">
-        <v>0.9213062296732859</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="P4">
-        <v>0.9213062296732859</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="Q4">
-        <v>7.269545322906001</v>
+        <v>0.2642106562653334</v>
       </c>
       <c r="R4">
-        <v>65.42590790615401</v>
+        <v>2.377895906388</v>
       </c>
       <c r="S4">
-        <v>0.1250294435571212</v>
+        <v>0.003651450591261021</v>
       </c>
       <c r="T4">
-        <v>0.1250294435571212</v>
+        <v>0.003651450591261022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.580934333333333</v>
+        <v>1.523319666666667</v>
       </c>
       <c r="H5">
-        <v>7.742803</v>
+        <v>4.569959</v>
       </c>
       <c r="I5">
-        <v>0.7212532557592974</v>
+        <v>0.3270148067479001</v>
       </c>
       <c r="J5">
-        <v>0.7212532557592974</v>
+        <v>0.3270148067479002</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9976189999999999</v>
+        <v>14.25707666666667</v>
       </c>
       <c r="N5">
-        <v>2.992857</v>
+        <v>42.77123</v>
       </c>
       <c r="O5">
-        <v>0.06139866523632875</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="P5">
-        <v>0.06139866523632875</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="Q5">
-        <v>2.574789128685667</v>
+        <v>21.71808527550778</v>
       </c>
       <c r="R5">
-        <v>23.173102158171</v>
+        <v>195.46276747957</v>
       </c>
       <c r="S5">
-        <v>0.04428398720097731</v>
+        <v>0.3001488147422436</v>
       </c>
       <c r="T5">
-        <v>0.04428398720097731</v>
+        <v>0.3001488147422437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>7.742803</v>
       </c>
       <c r="I6">
-        <v>0.7212532557592974</v>
+        <v>0.5540555673983205</v>
       </c>
       <c r="J6">
-        <v>0.7212532557592974</v>
+        <v>0.5540555673983206</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2810146666666667</v>
+        <v>0.1050723333333333</v>
       </c>
       <c r="N6">
-        <v>0.843044</v>
+        <v>0.315217</v>
       </c>
       <c r="O6">
-        <v>0.01729510509038539</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="P6">
-        <v>0.01729510509038539</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="Q6">
-        <v>0.7252804013702223</v>
+        <v>0.2711847925834445</v>
       </c>
       <c r="R6">
-        <v>6.527523612332001</v>
+        <v>2.440663133251</v>
       </c>
       <c r="S6">
-        <v>0.01247415085513966</v>
+        <v>0.003747834721039374</v>
       </c>
       <c r="T6">
-        <v>0.01247415085513966</v>
+        <v>0.003747834721039375</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>7.742803</v>
       </c>
       <c r="I7">
-        <v>0.7212532557592974</v>
+        <v>0.5540555673983205</v>
       </c>
       <c r="J7">
-        <v>0.7212532557592974</v>
+        <v>0.5540555673983206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.969586</v>
+        <v>0.9976189999999999</v>
       </c>
       <c r="N7">
-        <v>44.90875800000001</v>
+        <v>2.992857</v>
       </c>
       <c r="O7">
-        <v>0.9213062296732859</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="P7">
-        <v>0.9213062296732859</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="Q7">
-        <v>38.635518463186</v>
+        <v>2.574789128685667</v>
       </c>
       <c r="R7">
-        <v>347.7196661686741</v>
+        <v>23.173102158171</v>
       </c>
       <c r="S7">
-        <v>0.6644951177031805</v>
+        <v>0.03558416386078714</v>
       </c>
       <c r="T7">
-        <v>0.6644951177031805</v>
+        <v>0.03558416386078714</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5118470000000001</v>
+        <v>2.580934333333333</v>
       </c>
       <c r="H8">
-        <v>1.535541</v>
+        <v>7.742803</v>
       </c>
       <c r="I8">
-        <v>0.1430378566524148</v>
+        <v>0.5540555673983205</v>
       </c>
       <c r="J8">
-        <v>0.1430378566524148</v>
+        <v>0.5540555673983206</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9976189999999999</v>
+        <v>0.173444</v>
       </c>
       <c r="N8">
-        <v>2.992857</v>
+        <v>0.520332</v>
       </c>
       <c r="O8">
-        <v>0.06139866523632875</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="P8">
-        <v>0.06139866523632875</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="Q8">
-        <v>0.510628292293</v>
+        <v>0.4476475745106667</v>
       </c>
       <c r="R8">
-        <v>4.595654630637</v>
+        <v>4.028828170596</v>
       </c>
       <c r="S8">
-        <v>0.008782333476723596</v>
+        <v>0.006186589987430436</v>
       </c>
       <c r="T8">
-        <v>0.008782333476723596</v>
+        <v>0.006186589987430438</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5118470000000001</v>
+        <v>2.580934333333333</v>
       </c>
       <c r="H9">
-        <v>1.535541</v>
+        <v>7.742803</v>
       </c>
       <c r="I9">
-        <v>0.1430378566524148</v>
+        <v>0.5540555673983205</v>
       </c>
       <c r="J9">
-        <v>0.1430378566524148</v>
+        <v>0.5540555673983206</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2810146666666667</v>
+        <v>14.25707666666667</v>
       </c>
       <c r="N9">
-        <v>0.843044</v>
+        <v>42.77123</v>
       </c>
       <c r="O9">
-        <v>0.01729510509038539</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="P9">
-        <v>0.01729510509038539</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="Q9">
-        <v>0.1438365140893334</v>
+        <v>36.79657866196556</v>
       </c>
       <c r="R9">
-        <v>1.294528626804</v>
+        <v>331.16920795769</v>
       </c>
       <c r="S9">
-        <v>0.002473854762706995</v>
+        <v>0.5085369788290636</v>
       </c>
       <c r="T9">
-        <v>0.002473854762706995</v>
+        <v>0.5085369788290637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.554005</v>
+      </c>
+      <c r="H10">
+        <v>1.662015</v>
+      </c>
+      <c r="I10">
+        <v>0.1189296258537793</v>
+      </c>
+      <c r="J10">
+        <v>0.1189296258537793</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1050723333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.315217</v>
+      </c>
+      <c r="O10">
+        <v>0.006764366142259137</v>
+      </c>
+      <c r="P10">
+        <v>0.006764366142259137</v>
+      </c>
+      <c r="Q10">
+        <v>0.05821059802833333</v>
+      </c>
+      <c r="R10">
+        <v>0.523895382255</v>
+      </c>
+      <c r="S10">
+        <v>0.0008044835344368514</v>
+      </c>
+      <c r="T10">
+        <v>0.0008044835344368514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.5118470000000001</v>
-      </c>
-      <c r="H10">
-        <v>1.535541</v>
-      </c>
-      <c r="I10">
-        <v>0.1430378566524148</v>
-      </c>
-      <c r="J10">
-        <v>0.1430378566524148</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>14.969586</v>
-      </c>
-      <c r="N10">
-        <v>44.90875800000001</v>
-      </c>
-      <c r="O10">
-        <v>0.9213062296732859</v>
-      </c>
-      <c r="P10">
-        <v>0.9213062296732859</v>
-      </c>
-      <c r="Q10">
-        <v>7.662137685342001</v>
-      </c>
-      <c r="R10">
-        <v>68.95923916807801</v>
-      </c>
-      <c r="S10">
-        <v>0.1317816684129842</v>
-      </c>
-      <c r="T10">
-        <v>0.1317816684129842</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.554005</v>
+      </c>
+      <c r="H11">
+        <v>1.662015</v>
+      </c>
+      <c r="I11">
+        <v>0.1189296258537793</v>
+      </c>
+      <c r="J11">
+        <v>0.1189296258537793</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9976189999999999</v>
+      </c>
+      <c r="N11">
+        <v>2.992857</v>
+      </c>
+      <c r="O11">
+        <v>0.06422490081252995</v>
+      </c>
+      <c r="P11">
+        <v>0.06422490081252995</v>
+      </c>
+      <c r="Q11">
+        <v>0.5526859140949999</v>
+      </c>
+      <c r="R11">
+        <v>4.974173226854999</v>
+      </c>
+      <c r="S11">
+        <v>0.00763824342413027</v>
+      </c>
+      <c r="T11">
+        <v>0.00763824342413027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.554005</v>
+      </c>
+      <c r="H12">
+        <v>1.662015</v>
+      </c>
+      <c r="I12">
+        <v>0.1189296258537793</v>
+      </c>
+      <c r="J12">
+        <v>0.1189296258537793</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.173444</v>
+      </c>
+      <c r="N12">
+        <v>0.520332</v>
+      </c>
+      <c r="O12">
+        <v>0.01116600996625811</v>
+      </c>
+      <c r="P12">
+        <v>0.01116600996625811</v>
+      </c>
+      <c r="Q12">
+        <v>0.09608884322</v>
+      </c>
+      <c r="R12">
+        <v>0.86479958898</v>
+      </c>
+      <c r="S12">
+        <v>0.001327969387566647</v>
+      </c>
+      <c r="T12">
+        <v>0.001327969387566647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.554005</v>
+      </c>
+      <c r="H13">
+        <v>1.662015</v>
+      </c>
+      <c r="I13">
+        <v>0.1189296258537793</v>
+      </c>
+      <c r="J13">
+        <v>0.1189296258537793</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.25707666666667</v>
+      </c>
+      <c r="N13">
+        <v>42.77123</v>
+      </c>
+      <c r="O13">
+        <v>0.9178447230789528</v>
+      </c>
+      <c r="P13">
+        <v>0.9178447230789528</v>
+      </c>
+      <c r="Q13">
+        <v>7.898491758716667</v>
+      </c>
+      <c r="R13">
+        <v>71.08642582844999</v>
+      </c>
+      <c r="S13">
+        <v>0.1091589295076455</v>
+      </c>
+      <c r="T13">
+        <v>0.1091589295076455</v>
       </c>
     </row>
   </sheetData>
